--- a/medicine/Psychotrope/Canon-fronsac/Canon-fronsac.xlsx
+++ b/medicine/Psychotrope/Canon-fronsac/Canon-fronsac.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le canon-fronsac[1] est un vin rouge français d'appellation d'origine contrôlée produit autour de Fronsac.
+Le canon-fronsac est un vin rouge français d'appellation d'origine contrôlée produit autour de Fronsac.
 L'appellation forme avec celle de fronsac le Fronsadais, une des parties du Libournais, appartenant au vignoble de Bordeaux.
 </t>
         </is>
@@ -513,7 +525,9 @@
           <t>Vignoble</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La côte de Canon-Fronsac est le prolongement géologique vers le sud-ouest de la grande côte de Saint-Émilion portant les crus les plus prestigieux de l'appellation.
 Elle en est séparée sur une distance de 5 à 6 km par la plaine de Pomerol à l'est. Au nord, s'étendent les vignobles de Fronsac. On y retrouve les calcaires à astéries et la molasse du Fronsadais. Le relief accidenté de la région empêche la stagnation des eaux et la proximité des rivières de l'Isle et de la Dordogne protège les vignes des gelées.
